--- a/Fabrication Files for DEMO Board B2/工艺规格要求(Process requirements).xlsx
+++ b/Fabrication Files for DEMO Board B2/工艺规格要求(Process requirements).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DataSheets\ASM2464PD DEMO Board V1\ASM2464 Demov1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rambozhang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1BA104-C2F1-4CA8-814E-FA54A5C24299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2464129-4CA2-674B-94CB-0899081832BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3DAA458F-C325-47EB-82A5-52C1374094A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21120" xr2:uid="{3DAA458F-C325-47EB-82A5-52C1374094A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>板材类型/Material Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +132,14 @@
   </si>
   <si>
     <t>线宽/Trace Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,11 +196,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,200 +520,200 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+      <selection activeCell="A10" sqref="A10:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -721,7 +721,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
